--- a/Table/Table_xls/技能相关表/j技能表-复合/特技特效表.xlsx
+++ b/Table/Table_xls/技能相关表/j技能表-复合/特技特效表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="189">
   <si>
     <t>技能ID</t>
   </si>
@@ -368,9 +368,6 @@
     <t>破甲术</t>
   </si>
   <si>
-    <t>4200230</t>
-  </si>
-  <si>
     <t>碎甲术</t>
   </si>
   <si>
@@ -427,6 +424,54 @@
     <t>破碎无双</t>
   </si>
   <si>
+    <t>战令●物攻</t>
+  </si>
+  <si>
+    <t>4200340</t>
+  </si>
+  <si>
+    <t>战令●法攻</t>
+  </si>
+  <si>
+    <t>4200350</t>
+  </si>
+  <si>
+    <t>战令●物防</t>
+  </si>
+  <si>
+    <t>4200360</t>
+  </si>
+  <si>
+    <t>战令●法防</t>
+  </si>
+  <si>
+    <t>4200370</t>
+  </si>
+  <si>
+    <t>战令●破攻</t>
+  </si>
+  <si>
+    <t>4200380</t>
+  </si>
+  <si>
+    <t>战令●破法</t>
+  </si>
+  <si>
+    <t>4200390</t>
+  </si>
+  <si>
+    <t>战令●破甲</t>
+  </si>
+  <si>
+    <t>4200400</t>
+  </si>
+  <si>
+    <t>战令●破抗</t>
+  </si>
+  <si>
+    <t>4200410</t>
+  </si>
+  <si>
     <t>物理暴击 +8</t>
   </si>
   <si>
@@ -774,16 +819,97 @@
   <si>
     <t>0,1400</t>
   </si>
+  <si>
+    <t>体质+5%</t>
+  </si>
+  <si>
+    <t>智力+5%</t>
+  </si>
+  <si>
+    <t>力量+5%</t>
+  </si>
+  <si>
+    <t>耐力+5%</t>
+  </si>
+  <si>
+    <t>速度+5%</t>
+  </si>
+  <si>
+    <t>体质+10%</t>
+  </si>
+  <si>
+    <t>智力+10%</t>
+  </si>
+  <si>
+    <t>力量+10%</t>
+  </si>
+  <si>
+    <t>耐力+10%</t>
+  </si>
+  <si>
+    <t>速度+10%</t>
+  </si>
+  <si>
+    <t>体质+20%</t>
+  </si>
+  <si>
+    <t>智力+20%</t>
+  </si>
+  <si>
+    <t>力量+20%</t>
+  </si>
+  <si>
+    <t>耐力+20%</t>
+  </si>
+  <si>
+    <t>速度+20%</t>
+  </si>
+  <si>
+    <t>物理攻击+5%</t>
+  </si>
+  <si>
+    <t>物理攻击+10%</t>
+  </si>
+  <si>
+    <t>物理攻击+20%</t>
+  </si>
+  <si>
+    <t>法术攻击+5%</t>
+  </si>
+  <si>
+    <t>法术攻击+10%</t>
+  </si>
+  <si>
+    <t>法术攻击+20%</t>
+  </si>
+  <si>
+    <t>控制命中+5%</t>
+  </si>
+  <si>
+    <t>控制命中+10%</t>
+  </si>
+  <si>
+    <t>控制命中+15%</t>
+  </si>
+  <si>
+    <t>治疗强度+5%</t>
+  </si>
+  <si>
+    <t>治疗强度+10%</t>
+  </si>
+  <si>
+    <t>治疗强度+15%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -803,8 +929,83 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,18 +1018,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -848,107 +1072,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -959,7 +1085,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -992,6 +1118,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1004,67 +1160,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,61 +1172,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,7 +1190,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1160,19 +1298,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,6 +1315,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1197,6 +1338,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1231,21 +1405,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1256,184 +1415,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1532,6 +1664,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1923,13 +2058,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA101"/>
+  <dimension ref="A1:AA136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="I94" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="19.25" customWidth="1"/>
@@ -1937,16 +2072,16 @@
     <col min="7" max="9" width="19.25" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="10.625" customWidth="1"/>
-    <col min="13" max="13" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="10.6296296296296" customWidth="1"/>
+    <col min="13" max="13" width="12.6296296296296" customWidth="1"/>
     <col min="16" max="16" width="12.5" customWidth="1"/>
     <col min="17" max="18" width="9" style="2"/>
     <col min="19" max="19" width="22" style="3" customWidth="1"/>
-    <col min="20" max="20" width="11.875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="11.8796296296296" style="4" customWidth="1"/>
     <col min="21" max="21" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:27">
+    <row r="1" ht="43.2" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3302,8 +3437,8 @@
         <v>35</v>
       </c>
       <c r="R24" s="26"/>
-      <c r="S24" s="27" t="s">
-        <v>57</v>
+      <c r="S24" s="27">
+        <v>4200230</v>
       </c>
       <c r="T24" s="28">
         <v>0</v>
@@ -3322,7 +3457,7 @@
         <v>420024</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="10" t="s">
@@ -3378,7 +3513,7 @@
         <v>420025</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="10" t="s">
@@ -3434,7 +3569,7 @@
         <v>420026</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="10" t="s">
@@ -3490,7 +3625,7 @@
         <v>420027</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="10" t="s">
@@ -3527,7 +3662,7 @@
       </c>
       <c r="R28" s="26"/>
       <c r="S28" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T28" s="30">
         <v>0</v>
@@ -3546,7 +3681,7 @@
         <v>420028</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="10" t="s">
@@ -3602,7 +3737,7 @@
         <v>420029</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="10" t="s">
@@ -3658,7 +3793,7 @@
         <v>420030</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="10" t="s">
@@ -3714,7 +3849,7 @@
         <v>420031</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="10" t="s">
@@ -3751,10 +3886,10 @@
       </c>
       <c r="R32" s="26"/>
       <c r="S32" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="T32" s="30" t="s">
         <v>67</v>
-      </c>
-      <c r="T32" s="30" t="s">
-        <v>68</v>
       </c>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
@@ -3770,7 +3905,7 @@
         <v>420032</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="10" t="s">
@@ -3826,7 +3961,7 @@
         <v>420033</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="10" t="s">
@@ -3878,443 +4013,459 @@
       <c r="Z34" s="9"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="1">
-        <v>430001</v>
-      </c>
-      <c r="B35" s="14" t="s">
+      <c r="A35" s="7">
+        <v>420034</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="9">
+        <v>2</v>
+      </c>
+      <c r="L35" s="9">
+        <v>7</v>
+      </c>
+      <c r="M35" s="9">
+        <v>4127</v>
+      </c>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="26">
+        <v>10</v>
+      </c>
+      <c r="R35" s="26"/>
+      <c r="S35" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="16">
-        <v>0</v>
-      </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K35" s="9">
-        <v>2</v>
-      </c>
-      <c r="L35" s="1">
-        <v>11</v>
-      </c>
-      <c r="M35" s="1">
-        <v>1</v>
-      </c>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="32">
-        <v>4300010</v>
-      </c>
-      <c r="T35" s="33">
-        <v>0</v>
-      </c>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
+      <c r="T35" s="28">
+        <v>0</v>
+      </c>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
       <c r="W35">
         <v>1</v>
       </c>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="1">
-        <v>430002</v>
-      </c>
-      <c r="B36" s="14" t="s">
+      <c r="A36" s="7">
+        <v>420035</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="16">
-        <v>0</v>
-      </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="15" t="s">
-        <v>29</v>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="K36" s="9">
         <v>2</v>
       </c>
-      <c r="L36" s="1">
-        <v>11</v>
-      </c>
-      <c r="M36" s="1">
-        <v>1</v>
-      </c>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="32">
-        <v>4300020</v>
-      </c>
-      <c r="T36" s="33">
-        <v>0</v>
-      </c>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
+      <c r="L36" s="9">
+        <v>7</v>
+      </c>
+      <c r="M36" s="9">
+        <v>4127</v>
+      </c>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="26">
+        <v>10</v>
+      </c>
+      <c r="R36" s="26"/>
+      <c r="S36" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="T36" s="28">
+        <v>0</v>
+      </c>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
       <c r="W36">
         <v>1</v>
       </c>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="1">
-        <v>430003</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" s="16">
-        <v>0</v>
-      </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="15" t="s">
-        <v>29</v>
+      <c r="A37" s="7">
+        <v>420036</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="11">
+        <v>0</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="K37" s="9">
         <v>2</v>
       </c>
-      <c r="L37" s="1">
-        <v>11</v>
-      </c>
-      <c r="M37" s="1">
-        <v>1</v>
-      </c>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="32">
-        <v>4300030</v>
-      </c>
-      <c r="T37" s="33">
-        <v>0</v>
-      </c>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
+      <c r="L37" s="9">
+        <v>7</v>
+      </c>
+      <c r="M37" s="9">
+        <v>4127</v>
+      </c>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="26">
+        <v>10</v>
+      </c>
+      <c r="R37" s="26"/>
+      <c r="S37" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="T37" s="28">
+        <v>0</v>
+      </c>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
       <c r="W37">
         <v>1</v>
       </c>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="1">
-        <v>430004</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" s="16">
-        <v>0</v>
-      </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="15" t="s">
-        <v>29</v>
+      <c r="A38" s="7">
+        <v>420037</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="K38" s="9">
         <v>2</v>
       </c>
-      <c r="L38" s="1">
-        <v>11</v>
-      </c>
-      <c r="M38" s="1">
-        <v>1</v>
-      </c>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="32">
-        <v>4300040</v>
-      </c>
-      <c r="T38" s="33">
-        <v>0</v>
-      </c>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
+      <c r="L38" s="9">
+        <v>7</v>
+      </c>
+      <c r="M38" s="9">
+        <v>4127</v>
+      </c>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="26">
+        <v>10</v>
+      </c>
+      <c r="R38" s="26"/>
+      <c r="S38" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="T38" s="28">
+        <v>0</v>
+      </c>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
       <c r="W38">
         <v>1</v>
       </c>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="1">
-        <v>430005</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="16">
-        <v>0</v>
-      </c>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="15" t="s">
-        <v>29</v>
+      <c r="A39" s="7">
+        <v>420038</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="11">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="K39" s="9">
         <v>2</v>
       </c>
-      <c r="L39" s="1">
-        <v>11</v>
-      </c>
-      <c r="M39" s="1">
-        <v>1</v>
-      </c>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="32">
-        <v>4300050</v>
-      </c>
-      <c r="T39" s="33">
-        <v>0</v>
-      </c>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
+      <c r="L39" s="9">
+        <v>1</v>
+      </c>
+      <c r="M39" s="9">
+        <v>480</v>
+      </c>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="26">
+        <v>5</v>
+      </c>
+      <c r="R39" s="26"/>
+      <c r="S39" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="T39" s="28">
+        <v>0</v>
+      </c>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
       <c r="W39">
         <v>1</v>
       </c>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="1">
-        <v>430006</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" s="16">
-        <v>0</v>
-      </c>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="15" t="s">
-        <v>29</v>
+      <c r="A40" s="7">
+        <v>420039</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="K40" s="9">
         <v>2</v>
       </c>
-      <c r="L40" s="1">
-        <v>11</v>
-      </c>
-      <c r="M40" s="1">
-        <v>1</v>
-      </c>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="31"/>
-      <c r="S40" s="32">
-        <v>4300060</v>
-      </c>
-      <c r="T40" s="33">
-        <v>0</v>
-      </c>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
+      <c r="L40" s="9">
+        <v>1</v>
+      </c>
+      <c r="M40" s="9">
+        <v>480</v>
+      </c>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="26">
+        <v>5</v>
+      </c>
+      <c r="R40" s="26"/>
+      <c r="S40" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="T40" s="28">
+        <v>0</v>
+      </c>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
       <c r="W40">
         <v>1</v>
       </c>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="1">
-        <v>430007</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" s="16">
-        <v>0</v>
-      </c>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="15" t="s">
-        <v>29</v>
+      <c r="A41" s="7">
+        <v>420040</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="11">
+        <v>0</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="K41" s="9">
         <v>2</v>
       </c>
-      <c r="L41" s="1">
-        <v>11</v>
-      </c>
-      <c r="M41" s="1">
-        <v>1</v>
-      </c>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="32">
-        <v>4300070</v>
-      </c>
-      <c r="T41" s="33">
-        <v>0</v>
-      </c>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
+      <c r="L41" s="9">
+        <v>1</v>
+      </c>
+      <c r="M41" s="9">
+        <v>480</v>
+      </c>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="26">
+        <v>5</v>
+      </c>
+      <c r="R41" s="26"/>
+      <c r="S41" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="T41" s="28">
+        <v>0</v>
+      </c>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
       <c r="W41">
         <v>1</v>
       </c>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="1">
-        <v>430008</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" s="16">
-        <v>0</v>
-      </c>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="15" t="s">
-        <v>29</v>
+      <c r="A42" s="7">
+        <v>420041</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="11">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="K42" s="9">
         <v>2</v>
       </c>
-      <c r="L42" s="1">
-        <v>11</v>
-      </c>
-      <c r="M42" s="1">
-        <v>1</v>
-      </c>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="31"/>
-      <c r="R42" s="31"/>
-      <c r="S42" s="32">
-        <v>4300080</v>
-      </c>
-      <c r="T42" s="33">
-        <v>0</v>
-      </c>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
+      <c r="L42" s="9">
+        <v>1</v>
+      </c>
+      <c r="M42" s="9">
+        <v>480</v>
+      </c>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="26">
+        <v>5</v>
+      </c>
+      <c r="R42" s="26"/>
+      <c r="S42" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="T42" s="28">
+        <v>0</v>
+      </c>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
       <c r="W42">
         <v>1</v>
       </c>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
     </row>
     <row r="43" spans="1:26">
       <c r="A43" s="1">
-        <v>430009</v>
+        <v>430001</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="15" t="s">
@@ -4349,7 +4500,7 @@
       <c r="Q43" s="31"/>
       <c r="R43" s="31"/>
       <c r="S43" s="32">
-        <v>4300090</v>
+        <v>4300010</v>
       </c>
       <c r="T43" s="33">
         <v>0</v>
@@ -4365,10 +4516,10 @@
     </row>
     <row r="44" spans="1:26">
       <c r="A44" s="1">
-        <v>430010</v>
+        <v>430002</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="15" t="s">
@@ -4403,7 +4554,7 @@
       <c r="Q44" s="31"/>
       <c r="R44" s="31"/>
       <c r="S44" s="32">
-        <v>4300100</v>
+        <v>4300020</v>
       </c>
       <c r="T44" s="33">
         <v>0</v>
@@ -4419,10 +4570,10 @@
     </row>
     <row r="45" spans="1:26">
       <c r="A45" s="1">
-        <v>430011</v>
+        <v>430003</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="15" t="s">
@@ -4457,7 +4608,7 @@
       <c r="Q45" s="31"/>
       <c r="R45" s="31"/>
       <c r="S45" s="32">
-        <v>4300110</v>
+        <v>4300030</v>
       </c>
       <c r="T45" s="33">
         <v>0</v>
@@ -4473,10 +4624,10 @@
     </row>
     <row r="46" spans="1:26">
       <c r="A46" s="1">
-        <v>430012</v>
+        <v>430004</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="15" t="s">
@@ -4511,7 +4662,7 @@
       <c r="Q46" s="31"/>
       <c r="R46" s="31"/>
       <c r="S46" s="32">
-        <v>4300120</v>
+        <v>4300040</v>
       </c>
       <c r="T46" s="33">
         <v>0</v>
@@ -4527,10 +4678,10 @@
     </row>
     <row r="47" spans="1:26">
       <c r="A47" s="1">
-        <v>430013</v>
+        <v>430005</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="15" t="s">
@@ -4565,7 +4716,7 @@
       <c r="Q47" s="31"/>
       <c r="R47" s="31"/>
       <c r="S47" s="32">
-        <v>4300130</v>
+        <v>4300050</v>
       </c>
       <c r="T47" s="33">
         <v>0</v>
@@ -4581,10 +4732,10 @@
     </row>
     <row r="48" spans="1:26">
       <c r="A48" s="1">
-        <v>430014</v>
+        <v>430006</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="15" t="s">
@@ -4619,7 +4770,7 @@
       <c r="Q48" s="31"/>
       <c r="R48" s="31"/>
       <c r="S48" s="32">
-        <v>4300140</v>
+        <v>4300060</v>
       </c>
       <c r="T48" s="33">
         <v>0</v>
@@ -4635,10 +4786,10 @@
     </row>
     <row r="49" spans="1:26">
       <c r="A49" s="1">
-        <v>430015</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>85</v>
+        <v>430007</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="15" t="s">
@@ -4673,7 +4824,7 @@
       <c r="Q49" s="31"/>
       <c r="R49" s="31"/>
       <c r="S49" s="32">
-        <v>4300150</v>
+        <v>4300070</v>
       </c>
       <c r="T49" s="33">
         <v>0</v>
@@ -4689,10 +4840,10 @@
     </row>
     <row r="50" spans="1:26">
       <c r="A50" s="1">
-        <v>430016</v>
+        <v>430008</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="15" t="s">
@@ -4727,7 +4878,7 @@
       <c r="Q50" s="31"/>
       <c r="R50" s="31"/>
       <c r="S50" s="32">
-        <v>4300160</v>
+        <v>4300080</v>
       </c>
       <c r="T50" s="33">
         <v>0</v>
@@ -4743,10 +4894,10 @@
     </row>
     <row r="51" spans="1:26">
       <c r="A51" s="1">
-        <v>430017</v>
+        <v>430009</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="15" t="s">
@@ -4781,7 +4932,7 @@
       <c r="Q51" s="31"/>
       <c r="R51" s="31"/>
       <c r="S51" s="32">
-        <v>4300170</v>
+        <v>4300090</v>
       </c>
       <c r="T51" s="33">
         <v>0</v>
@@ -4797,10 +4948,10 @@
     </row>
     <row r="52" spans="1:26">
       <c r="A52" s="1">
-        <v>430018</v>
+        <v>430010</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="15" t="s">
@@ -4835,7 +4986,7 @@
       <c r="Q52" s="31"/>
       <c r="R52" s="31"/>
       <c r="S52" s="32">
-        <v>4300180</v>
+        <v>4300100</v>
       </c>
       <c r="T52" s="33">
         <v>0</v>
@@ -4851,10 +5002,10 @@
     </row>
     <row r="53" spans="1:26">
       <c r="A53" s="1">
-        <v>430019</v>
+        <v>430011</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="15" t="s">
@@ -4889,7 +5040,7 @@
       <c r="Q53" s="31"/>
       <c r="R53" s="31"/>
       <c r="S53" s="32">
-        <v>4300190</v>
+        <v>4300110</v>
       </c>
       <c r="T53" s="33">
         <v>0</v>
@@ -4905,10 +5056,10 @@
     </row>
     <row r="54" spans="1:26">
       <c r="A54" s="1">
-        <v>430020</v>
+        <v>430012</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="15" t="s">
@@ -4943,7 +5094,7 @@
       <c r="Q54" s="31"/>
       <c r="R54" s="31"/>
       <c r="S54" s="32">
-        <v>4300200</v>
+        <v>4300120</v>
       </c>
       <c r="T54" s="33">
         <v>0</v>
@@ -4959,10 +5110,10 @@
     </row>
     <row r="55" spans="1:26">
       <c r="A55" s="1">
-        <v>430021</v>
+        <v>430013</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="15" t="s">
@@ -4997,7 +5148,7 @@
       <c r="Q55" s="31"/>
       <c r="R55" s="31"/>
       <c r="S55" s="32">
-        <v>4300210</v>
+        <v>4300130</v>
       </c>
       <c r="T55" s="33">
         <v>0</v>
@@ -5013,10 +5164,10 @@
     </row>
     <row r="56" spans="1:26">
       <c r="A56" s="1">
-        <v>430022</v>
+        <v>430014</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="15" t="s">
@@ -5051,7 +5202,7 @@
       <c r="Q56" s="31"/>
       <c r="R56" s="31"/>
       <c r="S56" s="32">
-        <v>4300220</v>
+        <v>4300140</v>
       </c>
       <c r="T56" s="33">
         <v>0</v>
@@ -5067,10 +5218,10 @@
     </row>
     <row r="57" spans="1:26">
       <c r="A57" s="1">
-        <v>430023</v>
+        <v>430015</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="15" t="s">
@@ -5105,7 +5256,7 @@
       <c r="Q57" s="31"/>
       <c r="R57" s="31"/>
       <c r="S57" s="32">
-        <v>4300230</v>
+        <v>4300150</v>
       </c>
       <c r="T57" s="33">
         <v>0</v>
@@ -5121,10 +5272,10 @@
     </row>
     <row r="58" spans="1:26">
       <c r="A58" s="1">
-        <v>430024</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>94</v>
+        <v>430016</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="15" t="s">
@@ -5159,7 +5310,7 @@
       <c r="Q58" s="31"/>
       <c r="R58" s="31"/>
       <c r="S58" s="32">
-        <v>4300240</v>
+        <v>4300160</v>
       </c>
       <c r="T58" s="33">
         <v>0</v>
@@ -5175,10 +5326,10 @@
     </row>
     <row r="59" spans="1:26">
       <c r="A59" s="1">
-        <v>430025</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>95</v>
+        <v>430017</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="15" t="s">
@@ -5202,7 +5353,7 @@
         <v>2</v>
       </c>
       <c r="L59" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M59" s="1">
         <v>1</v>
@@ -5213,7 +5364,7 @@
       <c r="Q59" s="31"/>
       <c r="R59" s="31"/>
       <c r="S59" s="32">
-        <v>4300250</v>
+        <v>4300170</v>
       </c>
       <c r="T59" s="33">
         <v>0</v>
@@ -5229,10 +5380,10 @@
     </row>
     <row r="60" spans="1:26">
       <c r="A60" s="1">
-        <v>430026</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>96</v>
+        <v>430018</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="15" t="s">
@@ -5256,7 +5407,7 @@
         <v>2</v>
       </c>
       <c r="L60" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M60" s="1">
         <v>1</v>
@@ -5267,7 +5418,7 @@
       <c r="Q60" s="31"/>
       <c r="R60" s="31"/>
       <c r="S60" s="32">
-        <v>4300260</v>
+        <v>4300180</v>
       </c>
       <c r="T60" s="33">
         <v>0</v>
@@ -5283,10 +5434,10 @@
     </row>
     <row r="61" spans="1:26">
       <c r="A61" s="1">
-        <v>430027</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>97</v>
+        <v>430019</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="15" t="s">
@@ -5310,7 +5461,7 @@
         <v>2</v>
       </c>
       <c r="L61" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M61" s="1">
         <v>1</v>
@@ -5321,7 +5472,7 @@
       <c r="Q61" s="31"/>
       <c r="R61" s="31"/>
       <c r="S61" s="32">
-        <v>4300270</v>
+        <v>4300190</v>
       </c>
       <c r="T61" s="33">
         <v>0</v>
@@ -5337,10 +5488,10 @@
     </row>
     <row r="62" spans="1:26">
       <c r="A62" s="1">
-        <v>430028</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>98</v>
+        <v>430020</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="15" t="s">
@@ -5364,7 +5515,7 @@
         <v>2</v>
       </c>
       <c r="L62" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M62" s="1">
         <v>1</v>
@@ -5375,7 +5526,7 @@
       <c r="Q62" s="31"/>
       <c r="R62" s="31"/>
       <c r="S62" s="32">
-        <v>4300280</v>
+        <v>4300200</v>
       </c>
       <c r="T62" s="33">
         <v>0</v>
@@ -5391,10 +5542,10 @@
     </row>
     <row r="63" spans="1:26">
       <c r="A63" s="1">
-        <v>430029</v>
+        <v>430021</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="15" t="s">
@@ -5418,7 +5569,7 @@
         <v>2</v>
       </c>
       <c r="L63" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M63" s="1">
         <v>1</v>
@@ -5429,7 +5580,7 @@
       <c r="Q63" s="31"/>
       <c r="R63" s="31"/>
       <c r="S63" s="32">
-        <v>4300290</v>
+        <v>4300210</v>
       </c>
       <c r="T63" s="33">
         <v>0</v>
@@ -5445,10 +5596,10 @@
     </row>
     <row r="64" spans="1:26">
       <c r="A64" s="1">
-        <v>430030</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>100</v>
+        <v>430022</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>107</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="15" t="s">
@@ -5472,7 +5623,7 @@
         <v>2</v>
       </c>
       <c r="L64" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M64" s="1">
         <v>1</v>
@@ -5483,7 +5634,7 @@
       <c r="Q64" s="31"/>
       <c r="R64" s="31"/>
       <c r="S64" s="32">
-        <v>4300300</v>
+        <v>4300220</v>
       </c>
       <c r="T64" s="33">
         <v>0</v>
@@ -5499,10 +5650,10 @@
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="1">
-        <v>430031</v>
+        <v>430023</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="15" t="s">
@@ -5526,7 +5677,7 @@
         <v>2</v>
       </c>
       <c r="L65" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M65" s="1">
         <v>1</v>
@@ -5537,7 +5688,7 @@
       <c r="Q65" s="31"/>
       <c r="R65" s="31"/>
       <c r="S65" s="32">
-        <v>4300310</v>
+        <v>4300230</v>
       </c>
       <c r="T65" s="33">
         <v>0</v>
@@ -5551,13 +5702,14 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" s="1" customFormat="1" spans="1:23">
+    <row r="66" spans="1:26">
       <c r="A66" s="1">
-        <v>430032</v>
+        <v>430024</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>102</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C66" s="1"/>
       <c r="D66" s="15" t="s">
         <v>29</v>
       </c>
@@ -5579,30 +5731,39 @@
         <v>2</v>
       </c>
       <c r="L66" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M66" s="1">
         <v>1</v>
       </c>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
       <c r="Q66" s="31"/>
       <c r="R66" s="31"/>
       <c r="S66" s="32">
-        <v>4300320</v>
+        <v>4300240</v>
       </c>
       <c r="T66" s="33">
         <v>0</v>
       </c>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
       <c r="W66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" s="1" customFormat="1" spans="1:23">
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+    </row>
+    <row r="67" spans="1:26">
       <c r="A67" s="1">
-        <v>430033</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>103</v>
-      </c>
+        <v>430025</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="1"/>
       <c r="D67" s="15" t="s">
         <v>29</v>
       </c>
@@ -5629,25 +5790,34 @@
       <c r="M67" s="1">
         <v>1</v>
       </c>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
       <c r="Q67" s="31"/>
       <c r="R67" s="31"/>
       <c r="S67" s="32">
-        <v>4300330</v>
+        <v>4300250</v>
       </c>
       <c r="T67" s="33">
         <v>0</v>
       </c>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
       <c r="W67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" s="1" customFormat="1" spans="1:23">
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+    </row>
+    <row r="68" spans="1:26">
       <c r="A68" s="1">
-        <v>430034</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>104</v>
-      </c>
+        <v>430026</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="1"/>
       <c r="D68" s="15" t="s">
         <v>29</v>
       </c>
@@ -5674,25 +5844,34 @@
       <c r="M68" s="1">
         <v>1</v>
       </c>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
       <c r="Q68" s="31"/>
       <c r="R68" s="31"/>
       <c r="S68" s="32">
-        <v>4300340</v>
+        <v>4300260</v>
       </c>
       <c r="T68" s="33">
         <v>0</v>
       </c>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
       <c r="W68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" s="1" customFormat="1" spans="1:23">
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+    </row>
+    <row r="69" spans="1:26">
       <c r="A69" s="1">
-        <v>430035</v>
+        <v>430027</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>105</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C69" s="1"/>
       <c r="D69" s="15" t="s">
         <v>29</v>
       </c>
@@ -5719,25 +5898,34 @@
       <c r="M69" s="1">
         <v>1</v>
       </c>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
       <c r="Q69" s="31"/>
       <c r="R69" s="31"/>
       <c r="S69" s="32">
-        <v>4300350</v>
+        <v>4300270</v>
       </c>
       <c r="T69" s="33">
         <v>0</v>
       </c>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
       <c r="W69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" s="1" customFormat="1" spans="1:23">
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+    </row>
+    <row r="70" spans="1:26">
       <c r="A70" s="1">
-        <v>430036</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>106</v>
-      </c>
+        <v>430028</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" s="1"/>
       <c r="D70" s="15" t="s">
         <v>29</v>
       </c>
@@ -5764,24 +5952,32 @@
       <c r="M70" s="1">
         <v>1</v>
       </c>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
       <c r="Q70" s="31"/>
       <c r="R70" s="31"/>
       <c r="S70" s="32">
-        <v>4300360</v>
+        <v>4300280</v>
       </c>
       <c r="T70" s="33">
         <v>0</v>
       </c>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
       <c r="W70">
         <v>1</v>
       </c>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
     </row>
     <row r="71" spans="1:26">
       <c r="A71" s="1">
-        <v>430040</v>
+        <v>430029</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="15" t="s">
@@ -5805,7 +6001,7 @@
         <v>2</v>
       </c>
       <c r="L71" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M71" s="1">
         <v>1</v>
@@ -5815,8 +6011,8 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="31"/>
       <c r="R71" s="31"/>
-      <c r="S71" s="1">
-        <v>4300400</v>
+      <c r="S71" s="32">
+        <v>4300290</v>
       </c>
       <c r="T71" s="33">
         <v>0</v>
@@ -5832,10 +6028,10 @@
     </row>
     <row r="72" spans="1:26">
       <c r="A72" s="1">
-        <v>430041</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>108</v>
+        <v>430030</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="15" t="s">
@@ -5859,7 +6055,7 @@
         <v>2</v>
       </c>
       <c r="L72" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M72" s="1">
         <v>1</v>
@@ -5869,8 +6065,8 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="31"/>
       <c r="R72" s="31"/>
-      <c r="S72" s="1">
-        <v>4300401</v>
+      <c r="S72" s="32">
+        <v>4300300</v>
       </c>
       <c r="T72" s="33">
         <v>0</v>
@@ -5886,10 +6082,10 @@
     </row>
     <row r="73" spans="1:26">
       <c r="A73" s="1">
-        <v>430042</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>109</v>
+        <v>430031</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="15" t="s">
@@ -5913,7 +6109,7 @@
         <v>2</v>
       </c>
       <c r="L73" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M73" s="1">
         <v>1</v>
@@ -5923,8 +6119,8 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="31"/>
       <c r="R73" s="31"/>
-      <c r="S73" s="1">
-        <v>4300402</v>
+      <c r="S73" s="32">
+        <v>4300310</v>
       </c>
       <c r="T73" s="33">
         <v>0</v>
@@ -5938,14 +6134,13 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" s="1" customFormat="1" spans="1:23">
       <c r="A74" s="1">
-        <v>430043</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C74" s="1"/>
+        <v>430032</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="D74" s="15" t="s">
         <v>29</v>
       </c>
@@ -5967,39 +6162,30 @@
         <v>2</v>
       </c>
       <c r="L74" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M74" s="1">
         <v>1</v>
       </c>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
       <c r="Q74" s="31"/>
       <c r="R74" s="31"/>
-      <c r="S74" s="1">
-        <v>4300403</v>
+      <c r="S74" s="32">
+        <v>4300320</v>
       </c>
       <c r="T74" s="33">
         <v>0</v>
       </c>
-      <c r="U74" s="1"/>
-      <c r="V74" s="1"/>
       <c r="W74">
         <v>1</v>
       </c>
-      <c r="X74" s="1"/>
-      <c r="Y74" s="1"/>
-      <c r="Z74" s="1"/>
-    </row>
-    <row r="75" spans="1:26">
+    </row>
+    <row r="75" s="1" customFormat="1" spans="1:23">
       <c r="A75" s="1">
-        <v>430044</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C75" s="1"/>
+        <v>430033</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>118</v>
+      </c>
       <c r="D75" s="15" t="s">
         <v>29</v>
       </c>
@@ -6021,39 +6207,30 @@
         <v>2</v>
       </c>
       <c r="L75" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M75" s="1">
         <v>1</v>
       </c>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
       <c r="Q75" s="31"/>
       <c r="R75" s="31"/>
-      <c r="S75" s="1">
-        <v>4300404</v>
+      <c r="S75" s="32">
+        <v>4300330</v>
       </c>
       <c r="T75" s="33">
         <v>0</v>
       </c>
-      <c r="U75" s="1"/>
-      <c r="V75" s="1"/>
       <c r="W75">
         <v>1</v>
       </c>
-      <c r="X75" s="1"/>
-      <c r="Y75" s="1"/>
-      <c r="Z75" s="1"/>
-    </row>
-    <row r="76" spans="1:26">
+    </row>
+    <row r="76" s="1" customFormat="1" spans="1:23">
       <c r="A76" s="1">
-        <v>430045</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C76" s="1"/>
+        <v>430034</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="D76" s="15" t="s">
         <v>29</v>
       </c>
@@ -6075,39 +6252,30 @@
         <v>2</v>
       </c>
       <c r="L76" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M76" s="1">
         <v>1</v>
       </c>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
       <c r="Q76" s="31"/>
       <c r="R76" s="31"/>
-      <c r="S76" s="1">
-        <v>4300405</v>
+      <c r="S76" s="32">
+        <v>4300340</v>
       </c>
       <c r="T76" s="33">
         <v>0</v>
       </c>
-      <c r="U76" s="1"/>
-      <c r="V76" s="1"/>
       <c r="W76">
         <v>1</v>
       </c>
-      <c r="X76" s="1"/>
-      <c r="Y76" s="1"/>
-      <c r="Z76" s="1"/>
-    </row>
-    <row r="77" spans="1:26">
+    </row>
+    <row r="77" s="1" customFormat="1" spans="1:23">
       <c r="A77" s="1">
-        <v>430046</v>
+        <v>430035</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C77" s="1"/>
+        <v>120</v>
+      </c>
       <c r="D77" s="15" t="s">
         <v>29</v>
       </c>
@@ -6129,39 +6297,30 @@
         <v>2</v>
       </c>
       <c r="L77" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M77" s="1">
         <v>1</v>
       </c>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
       <c r="Q77" s="31"/>
       <c r="R77" s="31"/>
-      <c r="S77" s="1">
-        <v>4300406</v>
+      <c r="S77" s="32">
+        <v>4300350</v>
       </c>
       <c r="T77" s="33">
         <v>0</v>
       </c>
-      <c r="U77" s="1"/>
-      <c r="V77" s="1"/>
       <c r="W77">
         <v>1</v>
       </c>
-      <c r="X77" s="1"/>
-      <c r="Y77" s="1"/>
-      <c r="Z77" s="1"/>
-    </row>
-    <row r="78" spans="1:26">
+    </row>
+    <row r="78" s="1" customFormat="1" spans="1:23">
       <c r="A78" s="1">
-        <v>430047</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C78" s="1"/>
+        <v>430036</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>121</v>
+      </c>
       <c r="D78" s="15" t="s">
         <v>29</v>
       </c>
@@ -6183,37 +6342,29 @@
         <v>2</v>
       </c>
       <c r="L78" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M78" s="1">
         <v>1</v>
       </c>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
       <c r="Q78" s="31"/>
       <c r="R78" s="31"/>
-      <c r="S78" s="1">
-        <v>4300407</v>
+      <c r="S78" s="32">
+        <v>4300360</v>
       </c>
       <c r="T78" s="33">
         <v>0</v>
       </c>
-      <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
       <c r="W78">
         <v>1</v>
       </c>
-      <c r="X78" s="1"/>
-      <c r="Y78" s="1"/>
-      <c r="Z78" s="1"/>
     </row>
     <row r="79" spans="1:26">
       <c r="A79" s="1">
-        <v>430048</v>
+        <v>430040</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="15" t="s">
@@ -6248,7 +6399,7 @@
       <c r="Q79" s="31"/>
       <c r="R79" s="31"/>
       <c r="S79" s="1">
-        <v>4300408</v>
+        <v>4300400</v>
       </c>
       <c r="T79" s="33">
         <v>0</v>
@@ -6264,10 +6415,10 @@
     </row>
     <row r="80" spans="1:26">
       <c r="A80" s="1">
-        <v>430049</v>
+        <v>430041</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="15" t="s">
@@ -6302,7 +6453,7 @@
       <c r="Q80" s="31"/>
       <c r="R80" s="31"/>
       <c r="S80" s="1">
-        <v>4300409</v>
+        <v>4300401</v>
       </c>
       <c r="T80" s="33">
         <v>0</v>
@@ -6318,10 +6469,10 @@
     </row>
     <row r="81" spans="1:26">
       <c r="A81" s="1">
-        <v>430050</v>
+        <v>430042</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="15" t="s">
@@ -6356,7 +6507,7 @@
       <c r="Q81" s="31"/>
       <c r="R81" s="31"/>
       <c r="S81" s="1">
-        <v>4300410</v>
+        <v>4300402</v>
       </c>
       <c r="T81" s="33">
         <v>0</v>
@@ -6372,10 +6523,10 @@
     </row>
     <row r="82" spans="1:26">
       <c r="A82" s="1">
-        <v>430051</v>
+        <v>430043</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="15" t="s">
@@ -6410,7 +6561,7 @@
       <c r="Q82" s="31"/>
       <c r="R82" s="31"/>
       <c r="S82" s="1">
-        <v>4300411</v>
+        <v>4300403</v>
       </c>
       <c r="T82" s="33">
         <v>0</v>
@@ -6426,10 +6577,10 @@
     </row>
     <row r="83" spans="1:26">
       <c r="A83" s="1">
-        <v>430052</v>
+        <v>430044</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="15" t="s">
@@ -6464,7 +6615,7 @@
       <c r="Q83" s="31"/>
       <c r="R83" s="31"/>
       <c r="S83" s="1">
-        <v>4300412</v>
+        <v>4300404</v>
       </c>
       <c r="T83" s="33">
         <v>0</v>
@@ -6480,10 +6631,10 @@
     </row>
     <row r="84" spans="1:26">
       <c r="A84" s="1">
-        <v>430053</v>
+        <v>430045</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="15" t="s">
@@ -6518,7 +6669,7 @@
       <c r="Q84" s="31"/>
       <c r="R84" s="31"/>
       <c r="S84" s="1">
-        <v>4300413</v>
+        <v>4300405</v>
       </c>
       <c r="T84" s="33">
         <v>0</v>
@@ -6534,10 +6685,10 @@
     </row>
     <row r="85" spans="1:26">
       <c r="A85" s="1">
-        <v>430054</v>
+        <v>430046</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="15" t="s">
@@ -6572,7 +6723,7 @@
       <c r="Q85" s="31"/>
       <c r="R85" s="31"/>
       <c r="S85" s="1">
-        <v>4300414</v>
+        <v>4300406</v>
       </c>
       <c r="T85" s="33">
         <v>0</v>
@@ -6588,10 +6739,10 @@
     </row>
     <row r="86" spans="1:26">
       <c r="A86" s="1">
-        <v>430055</v>
+        <v>430047</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="15" t="s">
@@ -6626,7 +6777,7 @@
       <c r="Q86" s="31"/>
       <c r="R86" s="31"/>
       <c r="S86" s="1">
-        <v>4300415</v>
+        <v>4300407</v>
       </c>
       <c r="T86" s="33">
         <v>0</v>
@@ -6642,10 +6793,10 @@
     </row>
     <row r="87" spans="1:26">
       <c r="A87" s="1">
-        <v>430056</v>
+        <v>430048</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="15" t="s">
@@ -6680,7 +6831,7 @@
       <c r="Q87" s="31"/>
       <c r="R87" s="31"/>
       <c r="S87" s="1">
-        <v>4300416</v>
+        <v>4300408</v>
       </c>
       <c r="T87" s="33">
         <v>0</v>
@@ -6696,10 +6847,10 @@
     </row>
     <row r="88" spans="1:26">
       <c r="A88" s="1">
-        <v>430057</v>
+        <v>430049</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="15" t="s">
@@ -6734,7 +6885,7 @@
       <c r="Q88" s="31"/>
       <c r="R88" s="31"/>
       <c r="S88" s="1">
-        <v>4300417</v>
+        <v>4300409</v>
       </c>
       <c r="T88" s="33">
         <v>0</v>
@@ -6750,10 +6901,10 @@
     </row>
     <row r="89" spans="1:26">
       <c r="A89" s="1">
-        <v>430058</v>
+        <v>430050</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="15" t="s">
@@ -6788,7 +6939,7 @@
       <c r="Q89" s="31"/>
       <c r="R89" s="31"/>
       <c r="S89" s="1">
-        <v>4300418</v>
+        <v>4300410</v>
       </c>
       <c r="T89" s="33">
         <v>0</v>
@@ -6804,10 +6955,10 @@
     </row>
     <row r="90" spans="1:26">
       <c r="A90" s="1">
-        <v>430059</v>
+        <v>430051</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="15" t="s">
@@ -6842,7 +6993,7 @@
       <c r="Q90" s="31"/>
       <c r="R90" s="31"/>
       <c r="S90" s="1">
-        <v>4300419</v>
+        <v>4300411</v>
       </c>
       <c r="T90" s="33">
         <v>0</v>
@@ -6858,10 +7009,10 @@
     </row>
     <row r="91" spans="1:26">
       <c r="A91" s="1">
-        <v>430060</v>
+        <v>430052</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="15" t="s">
@@ -6896,7 +7047,7 @@
       <c r="Q91" s="31"/>
       <c r="R91" s="31"/>
       <c r="S91" s="1">
-        <v>4300420</v>
+        <v>4300412</v>
       </c>
       <c r="T91" s="33">
         <v>0</v>
@@ -6912,10 +7063,10 @@
     </row>
     <row r="92" spans="1:26">
       <c r="A92" s="1">
-        <v>430061</v>
+        <v>430053</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="15" t="s">
@@ -6950,7 +7101,7 @@
       <c r="Q92" s="31"/>
       <c r="R92" s="31"/>
       <c r="S92" s="1">
-        <v>4300421</v>
+        <v>4300413</v>
       </c>
       <c r="T92" s="33">
         <v>0</v>
@@ -6966,10 +7117,10 @@
     </row>
     <row r="93" spans="1:26">
       <c r="A93" s="1">
-        <v>430062</v>
+        <v>430054</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="15" t="s">
@@ -7004,7 +7155,7 @@
       <c r="Q93" s="31"/>
       <c r="R93" s="31"/>
       <c r="S93" s="1">
-        <v>4300422</v>
+        <v>4300414</v>
       </c>
       <c r="T93" s="33">
         <v>0</v>
@@ -7020,10 +7171,10 @@
     </row>
     <row r="94" spans="1:26">
       <c r="A94" s="1">
-        <v>430063</v>
+        <v>430055</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="15" t="s">
@@ -7058,7 +7209,7 @@
       <c r="Q94" s="31"/>
       <c r="R94" s="31"/>
       <c r="S94" s="1">
-        <v>4300423</v>
+        <v>4300415</v>
       </c>
       <c r="T94" s="33">
         <v>0</v>
@@ -7074,10 +7225,10 @@
     </row>
     <row r="95" spans="1:26">
       <c r="A95" s="1">
-        <v>430064</v>
+        <v>430056</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="15" t="s">
@@ -7101,7 +7252,7 @@
         <v>2</v>
       </c>
       <c r="L95" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M95" s="1">
         <v>1</v>
@@ -7112,7 +7263,7 @@
       <c r="Q95" s="31"/>
       <c r="R95" s="31"/>
       <c r="S95" s="1">
-        <v>4300424</v>
+        <v>4300416</v>
       </c>
       <c r="T95" s="33">
         <v>0</v>
@@ -7128,10 +7279,10 @@
     </row>
     <row r="96" spans="1:26">
       <c r="A96" s="1">
-        <v>430066</v>
+        <v>430057</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="15" t="s">
@@ -7155,7 +7306,7 @@
         <v>2</v>
       </c>
       <c r="L96" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M96" s="1">
         <v>1</v>
@@ -7165,8 +7316,8 @@
       <c r="P96" s="1"/>
       <c r="Q96" s="31"/>
       <c r="R96" s="31"/>
-      <c r="S96" s="27" t="s">
-        <v>133</v>
+      <c r="S96" s="1">
+        <v>4300417</v>
       </c>
       <c r="T96" s="33">
         <v>0</v>
@@ -7182,283 +7333,2173 @@
     </row>
     <row r="97" spans="1:26">
       <c r="A97" s="1">
-        <v>430067</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C97" s="9"/>
-      <c r="D97" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F97" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G97" s="11">
-        <v>0</v>
-      </c>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="20" t="s">
-        <v>28</v>
+        <v>430058</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F97" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G97" s="16">
+        <v>0</v>
+      </c>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="K97" s="9">
         <v>2</v>
       </c>
-      <c r="L97" s="9">
-        <v>1</v>
-      </c>
-      <c r="M97" s="9">
-        <v>480</v>
-      </c>
-      <c r="N97" s="9"/>
-      <c r="O97" s="9"/>
-      <c r="P97" s="9"/>
-      <c r="Q97" s="26">
-        <v>80</v>
-      </c>
-      <c r="R97" s="26"/>
-      <c r="S97" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="T97" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="U97" s="9"/>
-      <c r="V97" s="9"/>
+      <c r="L97" s="1">
+        <v>11</v>
+      </c>
+      <c r="M97" s="1">
+        <v>1</v>
+      </c>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="31"/>
+      <c r="R97" s="31"/>
+      <c r="S97" s="1">
+        <v>4300418</v>
+      </c>
+      <c r="T97" s="33">
+        <v>0</v>
+      </c>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
       <c r="W97">
         <v>1</v>
       </c>
-      <c r="X97" s="9"/>
-      <c r="Y97" s="9"/>
-      <c r="Z97" s="9"/>
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
     </row>
     <row r="98" spans="1:26">
       <c r="A98" s="1">
-        <v>430068</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E98" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F98" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G98" s="11">
-        <v>0</v>
-      </c>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="20" t="s">
-        <v>28</v>
+        <v>430059</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F98" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G98" s="16">
+        <v>0</v>
+      </c>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="K98" s="9">
         <v>2</v>
       </c>
-      <c r="L98" s="9">
-        <v>7</v>
-      </c>
-      <c r="M98" s="9">
-        <v>480</v>
-      </c>
-      <c r="N98" s="9"/>
-      <c r="O98" s="9"/>
-      <c r="P98" s="9"/>
-      <c r="Q98" s="26">
-        <v>125</v>
-      </c>
-      <c r="R98" s="26"/>
-      <c r="S98" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="T98" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="U98" s="9"/>
-      <c r="V98" s="9"/>
+      <c r="L98" s="1">
+        <v>11</v>
+      </c>
+      <c r="M98" s="1">
+        <v>1</v>
+      </c>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="31"/>
+      <c r="R98" s="31"/>
+      <c r="S98" s="1">
+        <v>4300419</v>
+      </c>
+      <c r="T98" s="33">
+        <v>0</v>
+      </c>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
       <c r="W98">
         <v>1</v>
       </c>
-      <c r="X98" s="9"/>
-      <c r="Y98" s="9"/>
-      <c r="Z98" s="9"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
     </row>
     <row r="99" spans="1:26">
       <c r="A99" s="1">
-        <v>430069</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F99" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G99" s="11">
-        <v>0</v>
-      </c>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
-      <c r="J99" s="20" t="s">
-        <v>28</v>
+        <v>430060</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E99" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F99" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G99" s="16">
+        <v>0</v>
+      </c>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="K99" s="9">
         <v>2</v>
       </c>
-      <c r="L99" s="9">
-        <v>7</v>
-      </c>
-      <c r="M99" s="9">
-        <v>4127</v>
-      </c>
-      <c r="N99" s="9"/>
-      <c r="O99" s="9"/>
-      <c r="P99" s="9"/>
-      <c r="Q99" s="26">
-        <v>150</v>
-      </c>
-      <c r="R99" s="26"/>
-      <c r="S99" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="T99" s="28">
-        <v>0</v>
-      </c>
-      <c r="U99" s="9"/>
-      <c r="V99" s="9"/>
+      <c r="L99" s="1">
+        <v>11</v>
+      </c>
+      <c r="M99" s="1">
+        <v>1</v>
+      </c>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="31"/>
+      <c r="R99" s="31"/>
+      <c r="S99" s="1">
+        <v>4300420</v>
+      </c>
+      <c r="T99" s="33">
+        <v>0</v>
+      </c>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
       <c r="W99">
         <v>1</v>
       </c>
-      <c r="X99" s="9"/>
-      <c r="Y99" s="9"/>
-      <c r="Z99" s="9"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
     </row>
     <row r="100" spans="1:26">
       <c r="A100" s="1">
-        <v>430070</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E100" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F100" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G100" s="11">
-        <v>0</v>
-      </c>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="20" t="s">
-        <v>28</v>
+        <v>430061</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G100" s="16">
+        <v>0</v>
+      </c>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="K100" s="9">
         <v>2</v>
       </c>
-      <c r="L100" s="9">
-        <v>7</v>
-      </c>
-      <c r="M100" s="9">
-        <v>4126</v>
-      </c>
-      <c r="N100" s="9"/>
-      <c r="O100" s="9"/>
-      <c r="P100" s="9"/>
-      <c r="Q100" s="26">
-        <v>80</v>
-      </c>
-      <c r="R100" s="26"/>
-      <c r="S100" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="T100" s="28">
-        <v>0</v>
-      </c>
-      <c r="U100" s="9"/>
-      <c r="V100" s="9"/>
+      <c r="L100" s="1">
+        <v>11</v>
+      </c>
+      <c r="M100" s="1">
+        <v>1</v>
+      </c>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="31"/>
+      <c r="R100" s="31"/>
+      <c r="S100" s="1">
+        <v>4300421</v>
+      </c>
+      <c r="T100" s="33">
+        <v>0</v>
+      </c>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
       <c r="W100">
         <v>1</v>
       </c>
-      <c r="X100" s="9"/>
-      <c r="Y100" s="9"/>
-      <c r="Z100" s="9"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
     </row>
     <row r="101" spans="1:26">
       <c r="A101" s="1">
+        <v>430062</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F101" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G101" s="16">
+        <v>0</v>
+      </c>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K101" s="9">
+        <v>2</v>
+      </c>
+      <c r="L101" s="1">
+        <v>11</v>
+      </c>
+      <c r="M101" s="1">
+        <v>1</v>
+      </c>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="31"/>
+      <c r="R101" s="31"/>
+      <c r="S101" s="1">
+        <v>4300422</v>
+      </c>
+      <c r="T101" s="33">
+        <v>0</v>
+      </c>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101">
+        <v>1</v>
+      </c>
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
+    </row>
+    <row r="102" spans="1:26">
+      <c r="A102" s="1">
+        <v>430063</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E102" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F102" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G102" s="16">
+        <v>0</v>
+      </c>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K102" s="9">
+        <v>2</v>
+      </c>
+      <c r="L102" s="1">
+        <v>11</v>
+      </c>
+      <c r="M102" s="1">
+        <v>1</v>
+      </c>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="31"/>
+      <c r="R102" s="31"/>
+      <c r="S102" s="1">
+        <v>4300423</v>
+      </c>
+      <c r="T102" s="33">
+        <v>0</v>
+      </c>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102">
+        <v>1</v>
+      </c>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="1"/>
+    </row>
+    <row r="103" spans="1:26">
+      <c r="A103" s="1">
+        <v>430064</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F103" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G103" s="16">
+        <v>0</v>
+      </c>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K103" s="9">
+        <v>2</v>
+      </c>
+      <c r="L103" s="1">
+        <v>10</v>
+      </c>
+      <c r="M103" s="1">
+        <v>1</v>
+      </c>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="31"/>
+      <c r="R103" s="31"/>
+      <c r="S103" s="1">
+        <v>4300424</v>
+      </c>
+      <c r="T103" s="33">
+        <v>0</v>
+      </c>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103">
+        <v>1</v>
+      </c>
+      <c r="X103" s="1"/>
+      <c r="Y103" s="1"/>
+      <c r="Z103" s="1"/>
+    </row>
+    <row r="104" spans="1:26">
+      <c r="A104" s="1">
+        <v>430066</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G104" s="16">
+        <v>0</v>
+      </c>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K104" s="9">
+        <v>2</v>
+      </c>
+      <c r="L104" s="1">
+        <v>10</v>
+      </c>
+      <c r="M104" s="1">
+        <v>1</v>
+      </c>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="31"/>
+      <c r="R104" s="31"/>
+      <c r="S104" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="T104" s="33">
+        <v>0</v>
+      </c>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104">
+        <v>1</v>
+      </c>
+      <c r="X104" s="1"/>
+      <c r="Y104" s="1"/>
+      <c r="Z104" s="1"/>
+    </row>
+    <row r="105" spans="1:26">
+      <c r="A105" s="1">
+        <v>430067</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C105" s="9"/>
+      <c r="D105" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G105" s="11">
+        <v>0</v>
+      </c>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K105" s="9">
+        <v>2</v>
+      </c>
+      <c r="L105" s="9">
+        <v>1</v>
+      </c>
+      <c r="M105" s="9">
+        <v>480</v>
+      </c>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="26">
+        <v>80</v>
+      </c>
+      <c r="R105" s="26"/>
+      <c r="S105" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="T105" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="U105" s="9"/>
+      <c r="V105" s="9"/>
+      <c r="W105">
+        <v>1</v>
+      </c>
+      <c r="X105" s="9"/>
+      <c r="Y105" s="9"/>
+      <c r="Z105" s="9"/>
+    </row>
+    <row r="106" spans="1:26">
+      <c r="A106" s="1">
+        <v>430068</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C106" s="9"/>
+      <c r="D106" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G106" s="11">
+        <v>0</v>
+      </c>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K106" s="9">
+        <v>2</v>
+      </c>
+      <c r="L106" s="9">
+        <v>7</v>
+      </c>
+      <c r="M106" s="9">
+        <v>480</v>
+      </c>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="9"/>
+      <c r="Q106" s="26">
+        <v>125</v>
+      </c>
+      <c r="R106" s="26"/>
+      <c r="S106" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="T106" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="U106" s="9"/>
+      <c r="V106" s="9"/>
+      <c r="W106">
+        <v>1</v>
+      </c>
+      <c r="X106" s="9"/>
+      <c r="Y106" s="9"/>
+      <c r="Z106" s="9"/>
+    </row>
+    <row r="107" spans="1:26">
+      <c r="A107" s="1">
+        <v>430069</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C107" s="9"/>
+      <c r="D107" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G107" s="11">
+        <v>0</v>
+      </c>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K107" s="9">
+        <v>2</v>
+      </c>
+      <c r="L107" s="9">
+        <v>7</v>
+      </c>
+      <c r="M107" s="9">
+        <v>4127</v>
+      </c>
+      <c r="N107" s="9"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="9"/>
+      <c r="Q107" s="26">
+        <v>150</v>
+      </c>
+      <c r="R107" s="26"/>
+      <c r="S107" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="T107" s="28">
+        <v>0</v>
+      </c>
+      <c r="U107" s="9"/>
+      <c r="V107" s="9"/>
+      <c r="W107">
+        <v>1</v>
+      </c>
+      <c r="X107" s="9"/>
+      <c r="Y107" s="9"/>
+      <c r="Z107" s="9"/>
+    </row>
+    <row r="108" spans="1:26">
+      <c r="A108" s="1">
+        <v>430070</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" s="9"/>
+      <c r="D108" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G108" s="11">
+        <v>0</v>
+      </c>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K108" s="9">
+        <v>2</v>
+      </c>
+      <c r="L108" s="9">
+        <v>7</v>
+      </c>
+      <c r="M108" s="9">
+        <v>4126</v>
+      </c>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
+      <c r="P108" s="9"/>
+      <c r="Q108" s="26">
+        <v>80</v>
+      </c>
+      <c r="R108" s="26"/>
+      <c r="S108" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="T108" s="28">
+        <v>0</v>
+      </c>
+      <c r="U108" s="9"/>
+      <c r="V108" s="9"/>
+      <c r="W108">
+        <v>1</v>
+      </c>
+      <c r="X108" s="9"/>
+      <c r="Y108" s="9"/>
+      <c r="Z108" s="9"/>
+    </row>
+    <row r="109" spans="1:26">
+      <c r="A109" s="1">
         <v>430071</v>
       </c>
-      <c r="B101" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="10" t="s">
+      <c r="B109" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C109" s="9"/>
+      <c r="D109" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E101" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F101" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G101" s="11">
-        <v>0</v>
-      </c>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
-      <c r="J101" s="20" t="s">
+      <c r="E109" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G109" s="11">
+        <v>0</v>
+      </c>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K101" s="9">
-        <v>2</v>
-      </c>
-      <c r="L101" s="9">
-        <v>1</v>
-      </c>
-      <c r="M101" s="9">
+      <c r="K109" s="9">
+        <v>2</v>
+      </c>
+      <c r="L109" s="9">
+        <v>1</v>
+      </c>
+      <c r="M109" s="9">
         <v>480</v>
       </c>
-      <c r="N101" s="9"/>
-      <c r="O101" s="9"/>
-      <c r="P101" s="9"/>
-      <c r="Q101" s="26">
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="26">
         <v>150</v>
       </c>
-      <c r="R101" s="26"/>
-      <c r="S101" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="T101" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="U101" s="9"/>
-      <c r="V101" s="9"/>
-      <c r="W101">
-        <v>1</v>
-      </c>
-      <c r="X101" s="9"/>
-      <c r="Y101" s="9"/>
-      <c r="Z101" s="9"/>
+      <c r="R109" s="26"/>
+      <c r="S109" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="T109" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="U109" s="9"/>
+      <c r="V109" s="9"/>
+      <c r="W109">
+        <v>1</v>
+      </c>
+      <c r="X109" s="9"/>
+      <c r="Y109" s="9"/>
+      <c r="Z109" s="9"/>
+    </row>
+    <row r="110" spans="1:26">
+      <c r="A110" s="1">
+        <v>430072</v>
+      </c>
+      <c r="B110" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F110" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G110" s="16">
+        <v>0</v>
+      </c>
+      <c r="H110" s="16"/>
+      <c r="I110" s="16"/>
+      <c r="J110" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K110" s="9">
+        <v>2</v>
+      </c>
+      <c r="L110" s="1">
+        <v>11</v>
+      </c>
+      <c r="M110" s="1">
+        <v>1</v>
+      </c>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="31"/>
+      <c r="R110" s="31"/>
+      <c r="S110" s="1">
+        <v>4300448</v>
+      </c>
+      <c r="T110" s="33">
+        <v>0</v>
+      </c>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+      <c r="W110">
+        <v>1</v>
+      </c>
+      <c r="X110" s="1"/>
+      <c r="Y110" s="1"/>
+      <c r="Z110" s="1"/>
+    </row>
+    <row r="111" spans="1:26">
+      <c r="A111" s="1">
+        <v>430073</v>
+      </c>
+      <c r="B111" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E111" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F111" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G111" s="16">
+        <v>0</v>
+      </c>
+      <c r="H111" s="16"/>
+      <c r="I111" s="16"/>
+      <c r="J111" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K111" s="9">
+        <v>2</v>
+      </c>
+      <c r="L111" s="1">
+        <v>11</v>
+      </c>
+      <c r="M111" s="1">
+        <v>1</v>
+      </c>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="31"/>
+      <c r="R111" s="31"/>
+      <c r="S111" s="1">
+        <v>4300449</v>
+      </c>
+      <c r="T111" s="33">
+        <v>0</v>
+      </c>
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
+      <c r="W111">
+        <v>1</v>
+      </c>
+      <c r="X111" s="1"/>
+      <c r="Y111" s="1"/>
+      <c r="Z111" s="1"/>
+    </row>
+    <row r="112" spans="1:26">
+      <c r="A112" s="1">
+        <v>430074</v>
+      </c>
+      <c r="B112" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E112" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F112" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G112" s="16">
+        <v>0</v>
+      </c>
+      <c r="H112" s="16"/>
+      <c r="I112" s="16"/>
+      <c r="J112" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K112" s="9">
+        <v>2</v>
+      </c>
+      <c r="L112" s="1">
+        <v>11</v>
+      </c>
+      <c r="M112" s="1">
+        <v>1</v>
+      </c>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="31"/>
+      <c r="R112" s="31"/>
+      <c r="S112" s="1">
+        <v>4300450</v>
+      </c>
+      <c r="T112" s="33">
+        <v>0</v>
+      </c>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+      <c r="W112">
+        <v>1</v>
+      </c>
+      <c r="X112" s="1"/>
+      <c r="Y112" s="1"/>
+      <c r="Z112" s="1"/>
+    </row>
+    <row r="113" spans="1:26">
+      <c r="A113" s="1">
+        <v>430075</v>
+      </c>
+      <c r="B113" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E113" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F113" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G113" s="16">
+        <v>0</v>
+      </c>
+      <c r="H113" s="16"/>
+      <c r="I113" s="16"/>
+      <c r="J113" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K113" s="9">
+        <v>2</v>
+      </c>
+      <c r="L113" s="1">
+        <v>11</v>
+      </c>
+      <c r="M113" s="1">
+        <v>1</v>
+      </c>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="31"/>
+      <c r="R113" s="31"/>
+      <c r="S113" s="1">
+        <v>4300451</v>
+      </c>
+      <c r="T113" s="33">
+        <v>0</v>
+      </c>
+      <c r="U113" s="1"/>
+      <c r="V113" s="1"/>
+      <c r="W113">
+        <v>1</v>
+      </c>
+      <c r="X113" s="1"/>
+      <c r="Y113" s="1"/>
+      <c r="Z113" s="1"/>
+    </row>
+    <row r="114" spans="1:26">
+      <c r="A114" s="1">
+        <v>430076</v>
+      </c>
+      <c r="B114" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E114" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F114" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G114" s="16">
+        <v>0</v>
+      </c>
+      <c r="H114" s="16"/>
+      <c r="I114" s="16"/>
+      <c r="J114" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K114" s="9">
+        <v>2</v>
+      </c>
+      <c r="L114" s="1">
+        <v>11</v>
+      </c>
+      <c r="M114" s="1">
+        <v>1</v>
+      </c>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="31"/>
+      <c r="R114" s="31"/>
+      <c r="S114" s="1">
+        <v>4300452</v>
+      </c>
+      <c r="T114" s="33">
+        <v>0</v>
+      </c>
+      <c r="U114" s="1"/>
+      <c r="V114" s="1"/>
+      <c r="W114">
+        <v>1</v>
+      </c>
+      <c r="X114" s="1"/>
+      <c r="Y114" s="1"/>
+      <c r="Z114" s="1"/>
+    </row>
+    <row r="115" spans="1:26">
+      <c r="A115" s="1">
+        <v>430077</v>
+      </c>
+      <c r="B115" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E115" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F115" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G115" s="16">
+        <v>0</v>
+      </c>
+      <c r="H115" s="16"/>
+      <c r="I115" s="16"/>
+      <c r="J115" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K115" s="9">
+        <v>2</v>
+      </c>
+      <c r="L115" s="1">
+        <v>11</v>
+      </c>
+      <c r="M115" s="1">
+        <v>1</v>
+      </c>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="31"/>
+      <c r="R115" s="31"/>
+      <c r="S115" s="1">
+        <v>4300453</v>
+      </c>
+      <c r="T115" s="33">
+        <v>0</v>
+      </c>
+      <c r="U115" s="1"/>
+      <c r="V115" s="1"/>
+      <c r="W115">
+        <v>1</v>
+      </c>
+      <c r="X115" s="1"/>
+      <c r="Y115" s="1"/>
+      <c r="Z115" s="1"/>
+    </row>
+    <row r="116" spans="1:26">
+      <c r="A116" s="1">
+        <v>430078</v>
+      </c>
+      <c r="B116" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F116" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G116" s="16">
+        <v>0</v>
+      </c>
+      <c r="H116" s="16"/>
+      <c r="I116" s="16"/>
+      <c r="J116" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K116" s="9">
+        <v>2</v>
+      </c>
+      <c r="L116" s="1">
+        <v>11</v>
+      </c>
+      <c r="M116" s="1">
+        <v>1</v>
+      </c>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="31"/>
+      <c r="R116" s="31"/>
+      <c r="S116" s="1">
+        <v>4300454</v>
+      </c>
+      <c r="T116" s="33">
+        <v>0</v>
+      </c>
+      <c r="U116" s="1"/>
+      <c r="V116" s="1"/>
+      <c r="W116">
+        <v>1</v>
+      </c>
+      <c r="X116" s="1"/>
+      <c r="Y116" s="1"/>
+      <c r="Z116" s="1"/>
+    </row>
+    <row r="117" spans="1:26">
+      <c r="A117" s="1">
+        <v>430079</v>
+      </c>
+      <c r="B117" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E117" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F117" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G117" s="16">
+        <v>0</v>
+      </c>
+      <c r="H117" s="16"/>
+      <c r="I117" s="16"/>
+      <c r="J117" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K117" s="9">
+        <v>2</v>
+      </c>
+      <c r="L117" s="1">
+        <v>11</v>
+      </c>
+      <c r="M117" s="1">
+        <v>1</v>
+      </c>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="31"/>
+      <c r="R117" s="31"/>
+      <c r="S117" s="1">
+        <v>4300455</v>
+      </c>
+      <c r="T117" s="33">
+        <v>0</v>
+      </c>
+      <c r="U117" s="1"/>
+      <c r="V117" s="1"/>
+      <c r="W117">
+        <v>1</v>
+      </c>
+      <c r="X117" s="1"/>
+      <c r="Y117" s="1"/>
+      <c r="Z117" s="1"/>
+    </row>
+    <row r="118" spans="1:26">
+      <c r="A118" s="1">
+        <v>430080</v>
+      </c>
+      <c r="B118" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F118" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G118" s="16">
+        <v>0</v>
+      </c>
+      <c r="H118" s="16"/>
+      <c r="I118" s="16"/>
+      <c r="J118" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K118" s="9">
+        <v>2</v>
+      </c>
+      <c r="L118" s="1">
+        <v>11</v>
+      </c>
+      <c r="M118" s="1">
+        <v>1</v>
+      </c>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="31"/>
+      <c r="R118" s="31"/>
+      <c r="S118" s="1">
+        <v>4300456</v>
+      </c>
+      <c r="T118" s="33">
+        <v>0</v>
+      </c>
+      <c r="U118" s="1"/>
+      <c r="V118" s="1"/>
+      <c r="W118">
+        <v>1</v>
+      </c>
+      <c r="X118" s="1"/>
+      <c r="Y118" s="1"/>
+      <c r="Z118" s="1"/>
+    </row>
+    <row r="119" spans="1:26">
+      <c r="A119" s="1">
+        <v>430081</v>
+      </c>
+      <c r="B119" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E119" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F119" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G119" s="16">
+        <v>0</v>
+      </c>
+      <c r="H119" s="16"/>
+      <c r="I119" s="16"/>
+      <c r="J119" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K119" s="9">
+        <v>2</v>
+      </c>
+      <c r="L119" s="1">
+        <v>11</v>
+      </c>
+      <c r="M119" s="1">
+        <v>1</v>
+      </c>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="31"/>
+      <c r="R119" s="31"/>
+      <c r="S119" s="1">
+        <v>4300457</v>
+      </c>
+      <c r="T119" s="33">
+        <v>0</v>
+      </c>
+      <c r="U119" s="1"/>
+      <c r="V119" s="1"/>
+      <c r="W119">
+        <v>1</v>
+      </c>
+      <c r="X119" s="1"/>
+      <c r="Y119" s="1"/>
+      <c r="Z119" s="1"/>
+    </row>
+    <row r="120" spans="1:26">
+      <c r="A120" s="1">
+        <v>430082</v>
+      </c>
+      <c r="B120" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="D120" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E120" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F120" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G120" s="16">
+        <v>0</v>
+      </c>
+      <c r="H120" s="16"/>
+      <c r="I120" s="16"/>
+      <c r="J120" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K120" s="9">
+        <v>2</v>
+      </c>
+      <c r="L120" s="1">
+        <v>11</v>
+      </c>
+      <c r="M120" s="1">
+        <v>1</v>
+      </c>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="31"/>
+      <c r="R120" s="31"/>
+      <c r="S120" s="1">
+        <v>4300458</v>
+      </c>
+      <c r="T120" s="33">
+        <v>0</v>
+      </c>
+      <c r="U120" s="1"/>
+      <c r="V120" s="1"/>
+      <c r="W120">
+        <v>1</v>
+      </c>
+      <c r="X120" s="1"/>
+      <c r="Y120" s="1"/>
+      <c r="Z120" s="1"/>
+    </row>
+    <row r="121" spans="1:26">
+      <c r="A121" s="1">
+        <v>430083</v>
+      </c>
+      <c r="B121" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C121" s="1"/>
+      <c r="D121" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E121" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F121" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G121" s="16">
+        <v>0</v>
+      </c>
+      <c r="H121" s="16"/>
+      <c r="I121" s="16"/>
+      <c r="J121" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K121" s="9">
+        <v>2</v>
+      </c>
+      <c r="L121" s="1">
+        <v>11</v>
+      </c>
+      <c r="M121" s="1">
+        <v>1</v>
+      </c>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="31"/>
+      <c r="R121" s="31"/>
+      <c r="S121" s="1">
+        <v>4300459</v>
+      </c>
+      <c r="T121" s="33">
+        <v>0</v>
+      </c>
+      <c r="U121" s="1"/>
+      <c r="V121" s="1"/>
+      <c r="W121">
+        <v>1</v>
+      </c>
+      <c r="X121" s="1"/>
+      <c r="Y121" s="1"/>
+      <c r="Z121" s="1"/>
+    </row>
+    <row r="122" spans="1:26">
+      <c r="A122" s="1">
+        <v>430084</v>
+      </c>
+      <c r="B122" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C122" s="1"/>
+      <c r="D122" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E122" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F122" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G122" s="16">
+        <v>0</v>
+      </c>
+      <c r="H122" s="16"/>
+      <c r="I122" s="16"/>
+      <c r="J122" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K122" s="9">
+        <v>2</v>
+      </c>
+      <c r="L122" s="1">
+        <v>11</v>
+      </c>
+      <c r="M122" s="1">
+        <v>1</v>
+      </c>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="31"/>
+      <c r="R122" s="31"/>
+      <c r="S122" s="1">
+        <v>4300460</v>
+      </c>
+      <c r="T122" s="33">
+        <v>0</v>
+      </c>
+      <c r="U122" s="1"/>
+      <c r="V122" s="1"/>
+      <c r="W122">
+        <v>1</v>
+      </c>
+      <c r="X122" s="1"/>
+      <c r="Y122" s="1"/>
+      <c r="Z122" s="1"/>
+    </row>
+    <row r="123" spans="1:26">
+      <c r="A123" s="1">
+        <v>430085</v>
+      </c>
+      <c r="B123" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C123" s="1"/>
+      <c r="D123" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E123" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F123" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G123" s="16">
+        <v>0</v>
+      </c>
+      <c r="H123" s="16"/>
+      <c r="I123" s="16"/>
+      <c r="J123" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K123" s="9">
+        <v>2</v>
+      </c>
+      <c r="L123" s="1">
+        <v>11</v>
+      </c>
+      <c r="M123" s="1">
+        <v>1</v>
+      </c>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="31"/>
+      <c r="R123" s="31"/>
+      <c r="S123" s="1">
+        <v>4300461</v>
+      </c>
+      <c r="T123" s="33">
+        <v>0</v>
+      </c>
+      <c r="U123" s="1"/>
+      <c r="V123" s="1"/>
+      <c r="W123">
+        <v>1</v>
+      </c>
+      <c r="X123" s="1"/>
+      <c r="Y123" s="1"/>
+      <c r="Z123" s="1"/>
+    </row>
+    <row r="124" spans="1:26">
+      <c r="A124" s="1">
+        <v>430086</v>
+      </c>
+      <c r="B124" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E124" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F124" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G124" s="16">
+        <v>0</v>
+      </c>
+      <c r="H124" s="16"/>
+      <c r="I124" s="16"/>
+      <c r="J124" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K124" s="9">
+        <v>2</v>
+      </c>
+      <c r="L124" s="1">
+        <v>11</v>
+      </c>
+      <c r="M124" s="1">
+        <v>1</v>
+      </c>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="31"/>
+      <c r="R124" s="31"/>
+      <c r="S124" s="1">
+        <v>4300462</v>
+      </c>
+      <c r="T124" s="33">
+        <v>0</v>
+      </c>
+      <c r="U124" s="1"/>
+      <c r="V124" s="1"/>
+      <c r="W124">
+        <v>1</v>
+      </c>
+      <c r="X124" s="1"/>
+      <c r="Y124" s="1"/>
+      <c r="Z124" s="1"/>
+    </row>
+    <row r="125" spans="1:26">
+      <c r="A125" s="1">
+        <v>430087</v>
+      </c>
+      <c r="B125" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E125" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F125" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G125" s="16">
+        <v>0</v>
+      </c>
+      <c r="H125" s="16"/>
+      <c r="I125" s="16"/>
+      <c r="J125" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K125" s="9">
+        <v>2</v>
+      </c>
+      <c r="L125" s="1">
+        <v>11</v>
+      </c>
+      <c r="M125" s="1">
+        <v>1</v>
+      </c>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="31"/>
+      <c r="R125" s="31"/>
+      <c r="S125" s="1">
+        <v>4300463</v>
+      </c>
+      <c r="T125" s="33">
+        <v>0</v>
+      </c>
+      <c r="U125" s="1"/>
+      <c r="V125" s="1"/>
+      <c r="W125">
+        <v>1</v>
+      </c>
+      <c r="X125" s="1"/>
+      <c r="Y125" s="1"/>
+      <c r="Z125" s="1"/>
+    </row>
+    <row r="126" spans="1:26">
+      <c r="A126" s="1">
+        <v>430088</v>
+      </c>
+      <c r="B126" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="C126" s="1"/>
+      <c r="D126" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E126" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F126" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G126" s="16">
+        <v>0</v>
+      </c>
+      <c r="H126" s="16"/>
+      <c r="I126" s="16"/>
+      <c r="J126" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K126" s="9">
+        <v>2</v>
+      </c>
+      <c r="L126" s="1">
+        <v>11</v>
+      </c>
+      <c r="M126" s="1">
+        <v>1</v>
+      </c>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="31"/>
+      <c r="R126" s="31"/>
+      <c r="S126" s="1">
+        <v>4300464</v>
+      </c>
+      <c r="T126" s="33">
+        <v>0</v>
+      </c>
+      <c r="U126" s="1"/>
+      <c r="V126" s="1"/>
+      <c r="W126">
+        <v>1</v>
+      </c>
+      <c r="X126" s="1"/>
+      <c r="Y126" s="1"/>
+      <c r="Z126" s="1"/>
+    </row>
+    <row r="127" spans="1:26">
+      <c r="A127" s="1">
+        <v>430089</v>
+      </c>
+      <c r="B127" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E127" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F127" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G127" s="16">
+        <v>0</v>
+      </c>
+      <c r="H127" s="16"/>
+      <c r="I127" s="16"/>
+      <c r="J127" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K127" s="9">
+        <v>2</v>
+      </c>
+      <c r="L127" s="1">
+        <v>11</v>
+      </c>
+      <c r="M127" s="1">
+        <v>1</v>
+      </c>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="31"/>
+      <c r="R127" s="31"/>
+      <c r="S127" s="1">
+        <v>4300465</v>
+      </c>
+      <c r="T127" s="33">
+        <v>0</v>
+      </c>
+      <c r="U127" s="1"/>
+      <c r="V127" s="1"/>
+      <c r="W127">
+        <v>1</v>
+      </c>
+      <c r="X127" s="1"/>
+      <c r="Y127" s="1"/>
+      <c r="Z127" s="1"/>
+    </row>
+    <row r="128" spans="1:26">
+      <c r="A128" s="1">
+        <v>430090</v>
+      </c>
+      <c r="B128" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="D128" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E128" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F128" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G128" s="16">
+        <v>0</v>
+      </c>
+      <c r="H128" s="16"/>
+      <c r="I128" s="16"/>
+      <c r="J128" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K128" s="9">
+        <v>2</v>
+      </c>
+      <c r="L128" s="1">
+        <v>11</v>
+      </c>
+      <c r="M128" s="1">
+        <v>1</v>
+      </c>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="Q128" s="31"/>
+      <c r="R128" s="31"/>
+      <c r="S128" s="1">
+        <v>4300466</v>
+      </c>
+      <c r="T128" s="33">
+        <v>0</v>
+      </c>
+      <c r="U128" s="1"/>
+      <c r="V128" s="1"/>
+      <c r="W128">
+        <v>1</v>
+      </c>
+      <c r="X128" s="1"/>
+      <c r="Y128" s="1"/>
+      <c r="Z128" s="1"/>
+    </row>
+    <row r="129" spans="1:26">
+      <c r="A129" s="1">
+        <v>430091</v>
+      </c>
+      <c r="B129" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E129" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F129" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G129" s="16">
+        <v>0</v>
+      </c>
+      <c r="H129" s="16"/>
+      <c r="I129" s="16"/>
+      <c r="J129" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K129" s="9">
+        <v>2</v>
+      </c>
+      <c r="L129" s="1">
+        <v>11</v>
+      </c>
+      <c r="M129" s="1">
+        <v>1</v>
+      </c>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="31"/>
+      <c r="R129" s="31"/>
+      <c r="S129" s="1">
+        <v>4300467</v>
+      </c>
+      <c r="T129" s="33">
+        <v>0</v>
+      </c>
+      <c r="U129" s="1"/>
+      <c r="V129" s="1"/>
+      <c r="W129">
+        <v>1</v>
+      </c>
+      <c r="X129" s="1"/>
+      <c r="Y129" s="1"/>
+      <c r="Z129" s="1"/>
+    </row>
+    <row r="130" customFormat="1" spans="1:26">
+      <c r="A130" s="1">
+        <v>430092</v>
+      </c>
+      <c r="B130" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C130" s="1"/>
+      <c r="D130" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E130" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F130" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G130" s="16">
+        <v>0</v>
+      </c>
+      <c r="H130" s="16"/>
+      <c r="I130" s="16"/>
+      <c r="J130" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K130" s="9">
+        <v>2</v>
+      </c>
+      <c r="L130" s="1">
+        <v>11</v>
+      </c>
+      <c r="M130" s="1">
+        <v>1</v>
+      </c>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="Q130" s="31"/>
+      <c r="R130" s="31"/>
+      <c r="S130" s="1">
+        <v>4300468</v>
+      </c>
+      <c r="T130" s="33">
+        <v>0</v>
+      </c>
+      <c r="U130" s="1"/>
+      <c r="V130" s="1"/>
+      <c r="W130">
+        <v>1</v>
+      </c>
+      <c r="X130" s="1"/>
+      <c r="Y130" s="1"/>
+      <c r="Z130" s="1"/>
+    </row>
+    <row r="131" spans="1:26">
+      <c r="A131" s="1">
+        <v>430093</v>
+      </c>
+      <c r="B131" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C131" s="1"/>
+      <c r="D131" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E131" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F131" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G131" s="16">
+        <v>0</v>
+      </c>
+      <c r="H131" s="16"/>
+      <c r="I131" s="16"/>
+      <c r="J131" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K131" s="9">
+        <v>2</v>
+      </c>
+      <c r="L131" s="1">
+        <v>11</v>
+      </c>
+      <c r="M131" s="1">
+        <v>1</v>
+      </c>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
+      <c r="Q131" s="31"/>
+      <c r="R131" s="31"/>
+      <c r="S131" s="1">
+        <v>4300469</v>
+      </c>
+      <c r="T131" s="33">
+        <v>0</v>
+      </c>
+      <c r="U131" s="1"/>
+      <c r="V131" s="1"/>
+      <c r="W131">
+        <v>1</v>
+      </c>
+      <c r="X131" s="1"/>
+      <c r="Y131" s="1"/>
+      <c r="Z131" s="1"/>
+    </row>
+    <row r="132" spans="1:26">
+      <c r="A132" s="1">
+        <v>430094</v>
+      </c>
+      <c r="B132" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C132" s="1"/>
+      <c r="D132" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E132" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F132" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G132" s="16">
+        <v>0</v>
+      </c>
+      <c r="H132" s="16"/>
+      <c r="I132" s="16"/>
+      <c r="J132" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K132" s="9">
+        <v>2</v>
+      </c>
+      <c r="L132" s="1">
+        <v>11</v>
+      </c>
+      <c r="M132" s="1">
+        <v>1</v>
+      </c>
+      <c r="N132" s="1"/>
+      <c r="O132" s="1"/>
+      <c r="P132" s="1"/>
+      <c r="Q132" s="31"/>
+      <c r="R132" s="31"/>
+      <c r="S132" s="1">
+        <v>4300470</v>
+      </c>
+      <c r="T132" s="33">
+        <v>0</v>
+      </c>
+      <c r="U132" s="1"/>
+      <c r="V132" s="1"/>
+      <c r="W132">
+        <v>1</v>
+      </c>
+      <c r="X132" s="1"/>
+      <c r="Y132" s="1"/>
+      <c r="Z132" s="1"/>
+    </row>
+    <row r="133" spans="1:26">
+      <c r="A133" s="1">
+        <v>430095</v>
+      </c>
+      <c r="B133" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="D133" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E133" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F133" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G133" s="16">
+        <v>0</v>
+      </c>
+      <c r="H133" s="16"/>
+      <c r="I133" s="16"/>
+      <c r="J133" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K133" s="9">
+        <v>2</v>
+      </c>
+      <c r="L133" s="1">
+        <v>11</v>
+      </c>
+      <c r="M133" s="1">
+        <v>1</v>
+      </c>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="1"/>
+      <c r="Q133" s="31"/>
+      <c r="R133" s="31"/>
+      <c r="S133" s="1">
+        <v>4300471</v>
+      </c>
+      <c r="T133" s="33">
+        <v>0</v>
+      </c>
+      <c r="U133" s="1"/>
+      <c r="V133" s="1"/>
+      <c r="W133">
+        <v>1</v>
+      </c>
+      <c r="X133" s="1"/>
+      <c r="Y133" s="1"/>
+      <c r="Z133" s="1"/>
+    </row>
+    <row r="134" spans="1:26">
+      <c r="A134" s="1">
+        <v>430096</v>
+      </c>
+      <c r="B134" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="D134" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E134" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F134" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G134" s="16">
+        <v>0</v>
+      </c>
+      <c r="H134" s="16"/>
+      <c r="I134" s="16"/>
+      <c r="J134" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K134" s="9">
+        <v>2</v>
+      </c>
+      <c r="L134" s="1">
+        <v>11</v>
+      </c>
+      <c r="M134" s="1">
+        <v>1</v>
+      </c>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="31"/>
+      <c r="R134" s="31"/>
+      <c r="S134" s="1">
+        <v>4300472</v>
+      </c>
+      <c r="T134" s="33">
+        <v>0</v>
+      </c>
+      <c r="U134" s="1"/>
+      <c r="V134" s="1"/>
+      <c r="W134">
+        <v>1</v>
+      </c>
+      <c r="X134" s="1"/>
+      <c r="Y134" s="1"/>
+      <c r="Z134" s="1"/>
+    </row>
+    <row r="135" spans="1:26">
+      <c r="A135" s="1">
+        <v>430097</v>
+      </c>
+      <c r="B135" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E135" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F135" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G135" s="16">
+        <v>0</v>
+      </c>
+      <c r="H135" s="16"/>
+      <c r="I135" s="16"/>
+      <c r="J135" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K135" s="9">
+        <v>2</v>
+      </c>
+      <c r="L135" s="1">
+        <v>11</v>
+      </c>
+      <c r="M135" s="1">
+        <v>1</v>
+      </c>
+      <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
+      <c r="P135" s="1"/>
+      <c r="Q135" s="31"/>
+      <c r="R135" s="31"/>
+      <c r="S135" s="1">
+        <v>4300473</v>
+      </c>
+      <c r="T135" s="33">
+        <v>0</v>
+      </c>
+      <c r="U135" s="1"/>
+      <c r="V135" s="1"/>
+      <c r="W135">
+        <v>1</v>
+      </c>
+      <c r="X135" s="1"/>
+      <c r="Y135" s="1"/>
+      <c r="Z135" s="1"/>
+    </row>
+    <row r="136" customFormat="1" spans="1:26">
+      <c r="A136" s="1">
+        <v>430098</v>
+      </c>
+      <c r="B136" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C136" s="1"/>
+      <c r="D136" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E136" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F136" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G136" s="16">
+        <v>0</v>
+      </c>
+      <c r="H136" s="16"/>
+      <c r="I136" s="16"/>
+      <c r="J136" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K136" s="9">
+        <v>2</v>
+      </c>
+      <c r="L136" s="1">
+        <v>11</v>
+      </c>
+      <c r="M136" s="1">
+        <v>1</v>
+      </c>
+      <c r="N136" s="1"/>
+      <c r="O136" s="1"/>
+      <c r="P136" s="1"/>
+      <c r="Q136" s="31"/>
+      <c r="R136" s="31"/>
+      <c r="S136" s="1">
+        <v>4300474</v>
+      </c>
+      <c r="T136" s="33">
+        <v>0</v>
+      </c>
+      <c r="U136" s="1"/>
+      <c r="V136" s="1"/>
+      <c r="W136">
+        <v>1</v>
+      </c>
+      <c r="X136" s="1"/>
+      <c r="Y136" s="1"/>
+      <c r="Z136" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7477,7 +9518,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -7494,7 +9535,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
